--- a/biology/Médecine/1794_en_santé_et_médecine/1794_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1794_en_santé_et_médecine/1794_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1794_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1794_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1794 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1794_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1794_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Écosse
-Décembre : le Glasgow Royal Infirmary (en) ouvre ses portes en Écosse[1].
-France
-4 décembre : organisation des écoles de santé à Paris, Montpellier et Strasbourg décidée par la loi du 14 frimaire an III (4 décembre 1794)[2]. Elles délivrent des doctorats en médecine et en chirurgie après 4 ans d’études.
-Création de la Chaire d’anatomie et physiologie à la Faculté de médecine de Montpellier. Elle est confiée à Charles-Louis Dumas (1765-1813)[3].</t>
+          <t>Écosse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Décembre : le Glasgow Royal Infirmary (en) ouvre ses portes en Écosse.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1794_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1794_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publications</t>
+          <t>Événements</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Thomas Beddoes (1760-1808) et James Watt (1736-1819) publient Considerations on the Medicinal Use and on the Production of Factitious Airs[4].</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4 décembre : organisation des écoles de santé à Paris, Montpellier et Strasbourg décidée par la loi du 14 frimaire an III (4 décembre 1794). Elles délivrent des doctorats en médecine et en chirurgie après 4 ans d’études.
+Création de la Chaire d’anatomie et physiologie à la Faculté de médecine de Montpellier. Elle est confiée à Charles-Louis Dumas (1765-1813).</t>
         </is>
       </c>
     </row>
@@ -557,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1794_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1794_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +593,44 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thomas Beddoes (1760-1808) et James Watt (1736-1819) publient Considerations on the Medicinal Use and on the Production of Factitious Airs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1794_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1794_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>18 janvier : Jacques Eudes-Deslongchamps (mort en 1867), médecin, naturaliste et paléontologue français.
 29 janvier : François Raspail (mort en 1878), médecin, chimiste et homme politique français.
@@ -591,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1794_en_sant%C3%A9_et_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1794_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/1794_en_sant%C3%A9_et_m%C3%A9decine</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>22 février : Caspar Friedrich Wolff (né en 1734), médecin allemand, considéré comme l’un des fondateurs de l’embryologie.
 28 février : Jean-Louis Bagot (né en 1727), chirurgien de marine, maire de Saint-Brieuc de 1774 à 1790 et député à l'Assemblée législative en 1791.
